--- a/docs/電腦繪圖國小中年級甲組靜態類決賽名冊.xlsx
+++ b/docs/電腦繪圖國小中年級甲組靜態類決賽名冊.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="電腦繪圖國小中年級甲組靜態類決賽名冊" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="221">
   <si>
     <t>序</t>
   </si>
@@ -48,6 +48,93 @@
     <t>電腦繪圖國小中年級甲組靜態類</t>
   </si>
   <si>
+    <t>大甲區大甲國小</t>
+  </si>
+  <si>
+    <t>陳羽婕</t>
+  </si>
+  <si>
+    <t>張國鴻</t>
+  </si>
+  <si>
+    <t>Windows 小畫家</t>
+  </si>
+  <si>
+    <t>cdx54d4</t>
+  </si>
+  <si>
+    <t>wh55xb8</t>
+  </si>
+  <si>
+    <t>陳宥妤</t>
+  </si>
+  <si>
+    <t>cd30m6</t>
+  </si>
+  <si>
+    <t>s99kf8</t>
+  </si>
+  <si>
+    <t>李晏薰</t>
+  </si>
+  <si>
+    <t>林孟洳</t>
+  </si>
+  <si>
+    <t>w11cd7</t>
+  </si>
+  <si>
+    <t>dx12yg5</t>
+  </si>
+  <si>
+    <t>大甲區文昌國小</t>
+  </si>
+  <si>
+    <t>王廷峻</t>
+  </si>
+  <si>
+    <t>施伯嶽</t>
+  </si>
+  <si>
+    <t>smy12xb3</t>
+  </si>
+  <si>
+    <t>c13wh3</t>
+  </si>
+  <si>
+    <t>陳博翌</t>
+  </si>
+  <si>
+    <t>pe61t2</t>
+  </si>
+  <si>
+    <t>hp73n2</t>
+  </si>
+  <si>
+    <t>大甲區日南國小</t>
+  </si>
+  <si>
+    <t>葉芯妍</t>
+  </si>
+  <si>
+    <t>吳姿慧</t>
+  </si>
+  <si>
+    <t>dxb23rs7</t>
+  </si>
+  <si>
+    <t>f92v4</t>
+  </si>
+  <si>
+    <t>張羽彤</t>
+  </si>
+  <si>
+    <t>gwh40b2</t>
+  </si>
+  <si>
+    <t>rs12hp5</t>
+  </si>
+  <si>
     <t>大里區永隆國小</t>
   </si>
   <si>
@@ -57,379 +144,355 @@
     <t>洪宸皓</t>
   </si>
   <si>
-    <t>Windows 小畫家</t>
-  </si>
-  <si>
-    <t>cd57a9</t>
-  </si>
-  <si>
-    <t>rs29et3</t>
+    <t>b16b3</t>
+  </si>
+  <si>
+    <t>cdx48j6</t>
   </si>
   <si>
     <t>邱于珊</t>
   </si>
   <si>
-    <t>my84a6</t>
-  </si>
-  <si>
-    <t>nc45j6</t>
-  </si>
-  <si>
-    <t>林芃叡</t>
-  </si>
-  <si>
-    <t>rsm19d6</t>
-  </si>
-  <si>
-    <t>jkf5w3</t>
-  </si>
-  <si>
-    <t>大里區益民國小</t>
-  </si>
-  <si>
-    <t>陳宜謙</t>
-  </si>
-  <si>
-    <t>林家卉</t>
-  </si>
-  <si>
-    <t>Inkscape 0.92.2</t>
-  </si>
-  <si>
-    <t>yg69c5</t>
-  </si>
-  <si>
-    <t>j33gw9</t>
-  </si>
-  <si>
-    <t>余卓瑄</t>
-  </si>
-  <si>
-    <t>rs62c9</t>
-  </si>
-  <si>
-    <t>et78x6</t>
-  </si>
-  <si>
-    <t>大里區塗城國小</t>
-  </si>
-  <si>
-    <t>曾馨儀</t>
-  </si>
-  <si>
-    <t>王聖文</t>
-  </si>
-  <si>
-    <t>MyPaint 1.2.1</t>
-  </si>
-  <si>
-    <t>etv11y9</t>
-  </si>
-  <si>
-    <t>m49my2</t>
-  </si>
-  <si>
-    <t>大雅區大明國小</t>
-  </si>
-  <si>
-    <t>吳芷妤</t>
-  </si>
-  <si>
-    <t>周熙平</t>
-  </si>
-  <si>
-    <t>bj10gw4</t>
-  </si>
-  <si>
-    <t>wh70kf2</t>
-  </si>
-  <si>
-    <t>太平區宜欣國小</t>
-  </si>
-  <si>
-    <t>謝欣凌</t>
-  </si>
-  <si>
-    <t>黃惠芬</t>
-  </si>
-  <si>
-    <t>et69nc3</t>
-  </si>
-  <si>
-    <t>k74nc8</t>
+    <t>rsm7g2</t>
+  </si>
+  <si>
+    <t>gw59kf2</t>
+  </si>
+  <si>
+    <t>大里區瑞城國小</t>
+  </si>
+  <si>
+    <t>林妍芯</t>
+  </si>
+  <si>
+    <t>陳慧玲</t>
+  </si>
+  <si>
+    <t>Krita 4.1.7</t>
+  </si>
+  <si>
+    <t>v47fr6</t>
+  </si>
+  <si>
+    <t>ncd27e9</t>
+  </si>
+  <si>
+    <t>大雅區大雅國小</t>
+  </si>
+  <si>
+    <t>李靖涵</t>
+  </si>
+  <si>
+    <t>劉華生</t>
+  </si>
+  <si>
+    <t>dx97yg6</t>
+  </si>
+  <si>
+    <t>wh64e5</t>
   </si>
   <si>
     <t>北屯區仁美國小</t>
   </si>
   <si>
-    <t>蔡承邑</t>
+    <t>蔡昕庭</t>
   </si>
   <si>
     <t>黃瓊瑩</t>
   </si>
   <si>
-    <t>m54y4</t>
-  </si>
-  <si>
-    <t>jkf12yg7</t>
-  </si>
-  <si>
-    <t>林苡恩</t>
-  </si>
-  <si>
-    <t>smy62r8</t>
-  </si>
-  <si>
-    <t>tv80sm5</t>
-  </si>
-  <si>
-    <t>龍羿辰</t>
-  </si>
-  <si>
-    <t>jkf20wh7</t>
-  </si>
-  <si>
-    <t>y96w9</t>
+    <t>et21kf8</t>
+  </si>
+  <si>
+    <t>cdx62dx2</t>
+  </si>
+  <si>
+    <t>北屯區文心國小</t>
+  </si>
+  <si>
+    <t>陳緯恩</t>
+  </si>
+  <si>
+    <t>林雨青</t>
+  </si>
+  <si>
+    <t>pet75w5</t>
+  </si>
+  <si>
+    <t>s39rs2</t>
+  </si>
+  <si>
+    <t>北屯區文昌國小</t>
+  </si>
+  <si>
+    <t>賴芷曦</t>
+  </si>
+  <si>
+    <t>陳美秀</t>
+  </si>
+  <si>
+    <t>r44jk5</t>
+  </si>
+  <si>
+    <t>cd32b4</t>
+  </si>
+  <si>
+    <t>北屯區北屯國小</t>
+  </si>
+  <si>
+    <t>許安淇</t>
+  </si>
+  <si>
+    <t>王真麟</t>
+  </si>
+  <si>
+    <t>d79kf4</t>
+  </si>
+  <si>
+    <t>t9et5</t>
+  </si>
+  <si>
+    <t>北屯區四張犁國小</t>
+  </si>
+  <si>
+    <t>詹詠筑</t>
+  </si>
+  <si>
+    <t>張瓊文</t>
+  </si>
+  <si>
+    <t>m77v2</t>
+  </si>
+  <si>
+    <t>hp97p8</t>
+  </si>
+  <si>
+    <t>楊姵恩</t>
+  </si>
+  <si>
+    <t>an76t8</t>
+  </si>
+  <si>
+    <t>smy61e7</t>
+  </si>
+  <si>
+    <t>北屯區明道普霖斯頓小學</t>
+  </si>
+  <si>
+    <t>陳筠臻</t>
+  </si>
+  <si>
+    <t>劉禎</t>
+  </si>
+  <si>
+    <t>pet80nc8</t>
+  </si>
+  <si>
+    <t>bjk65jk4</t>
+  </si>
+  <si>
+    <t>戴凱鈞</t>
+  </si>
+  <si>
+    <t>e9w3</t>
+  </si>
+  <si>
+    <t>yg4e6</t>
+  </si>
+  <si>
+    <t>黃子芯</t>
+  </si>
+  <si>
+    <t>rs64wh8</t>
+  </si>
+  <si>
+    <t>b25fr5</t>
   </si>
   <si>
     <t>北屯區軍功國小</t>
   </si>
   <si>
-    <t>傅子恩</t>
-  </si>
-  <si>
-    <t>謝亞文</t>
-  </si>
-  <si>
-    <t>sm7t6</t>
-  </si>
-  <si>
-    <t>tv75bj2</t>
-  </si>
-  <si>
-    <t>羅唯岑</t>
-  </si>
-  <si>
-    <t>cdx5sm1</t>
-  </si>
-  <si>
-    <t>gw39h5</t>
-  </si>
-  <si>
-    <t>陳名楨</t>
-  </si>
-  <si>
-    <t>x69hp7</t>
-  </si>
-  <si>
-    <t>y57wh7</t>
-  </si>
-  <si>
-    <t>江典晏</t>
-  </si>
-  <si>
-    <t>my33w1</t>
-  </si>
-  <si>
-    <t>a10cd8</t>
-  </si>
-  <si>
-    <t>北區立人國小</t>
-  </si>
-  <si>
-    <t>姚佳廷</t>
-  </si>
-  <si>
-    <t>呂欣芸</t>
-  </si>
-  <si>
-    <t>m21s7</t>
-  </si>
-  <si>
-    <t>yg64j6</t>
+    <t>陳筱茵</t>
+  </si>
+  <si>
+    <t>余嘉樺</t>
+  </si>
+  <si>
+    <t>fr43xb3</t>
+  </si>
+  <si>
+    <t>jk2j9</t>
+  </si>
+  <si>
+    <t>施品溶</t>
+  </si>
+  <si>
+    <t>sm45n2</t>
+  </si>
+  <si>
+    <t>wh8wh3</t>
   </si>
   <si>
     <t>北區賴厝國小</t>
   </si>
   <si>
-    <t>游若筠</t>
-  </si>
-  <si>
-    <t>蔡佩勳</t>
-  </si>
-  <si>
-    <t>ncd8p6</t>
-  </si>
-  <si>
-    <t>cdx97sm7</t>
-  </si>
-  <si>
-    <t>吳思憲</t>
-  </si>
-  <si>
-    <t>cd82tv4</t>
-  </si>
-  <si>
-    <t>j24hp2</t>
-  </si>
-  <si>
-    <t>西屯區上石國小</t>
-  </si>
-  <si>
-    <t>廖懿柔</t>
-  </si>
-  <si>
-    <t>蔡嘉俊</t>
-  </si>
-  <si>
-    <t>nc56rs8</t>
-  </si>
-  <si>
-    <t>c56an5</t>
-  </si>
-  <si>
-    <t>西區大同國小</t>
-  </si>
-  <si>
-    <t>郭可馨</t>
-  </si>
-  <si>
-    <t>呂意仁</t>
-  </si>
-  <si>
-    <t>cd78e9</t>
-  </si>
-  <si>
-    <t>jk98y2</t>
-  </si>
-  <si>
-    <t>林怡玟</t>
-  </si>
-  <si>
-    <t>陳宏州</t>
-  </si>
-  <si>
-    <t>gw85v6</t>
-  </si>
-  <si>
-    <t>ncd51nc7</t>
-  </si>
-  <si>
-    <t>陳亮辰</t>
-  </si>
-  <si>
-    <t>曾蕙芳</t>
-  </si>
-  <si>
-    <t>frs81yg7</t>
-  </si>
-  <si>
-    <t>n47g3</t>
+    <t>蔡欣辰</t>
+  </si>
+  <si>
+    <t>黄于秦</t>
+  </si>
+  <si>
+    <t>etv29f8</t>
+  </si>
+  <si>
+    <t>frs37bj4</t>
+  </si>
+  <si>
+    <t>李采凌</t>
+  </si>
+  <si>
+    <t>黃于秦</t>
+  </si>
+  <si>
+    <t>b84my5</t>
+  </si>
+  <si>
+    <t>m34nc7</t>
+  </si>
+  <si>
+    <t>陳詠云</t>
+  </si>
+  <si>
+    <t>w35hp4</t>
+  </si>
+  <si>
+    <t>s57p7</t>
+  </si>
+  <si>
+    <t>外埔區外埔國小</t>
+  </si>
+  <si>
+    <t>李菲芃</t>
+  </si>
+  <si>
+    <t>陳雅玲</t>
+  </si>
+  <si>
+    <t>dxb52hp4</t>
+  </si>
+  <si>
+    <t>pe64xb5</t>
+  </si>
+  <si>
+    <t>朱語婕</t>
+  </si>
+  <si>
+    <t>陳文鴻</t>
+  </si>
+  <si>
+    <t>tv13b1</t>
+  </si>
+  <si>
+    <t>dx23gw5</t>
+  </si>
+  <si>
+    <t>西區忠明國小</t>
+  </si>
+  <si>
+    <t>連沛綸</t>
+  </si>
+  <si>
+    <t>方彥綾</t>
+  </si>
+  <si>
+    <t>w65g3</t>
+  </si>
+  <si>
+    <t>j45x7</t>
   </si>
   <si>
     <t>沙鹿區沙鹿國小</t>
   </si>
   <si>
-    <t>古思庭</t>
+    <t>王真欣</t>
   </si>
   <si>
     <t>陳有興</t>
   </si>
   <si>
-    <t>xb27et1</t>
-  </si>
-  <si>
-    <t>s14xb8</t>
-  </si>
-  <si>
-    <t>郭隽樂</t>
-  </si>
-  <si>
-    <t>ygw68k8</t>
-  </si>
-  <si>
-    <t>cd59g8</t>
-  </si>
-  <si>
-    <t>陳郁昕</t>
-  </si>
-  <si>
-    <t>s86s3</t>
-  </si>
-  <si>
-    <t>cd85y2</t>
-  </si>
-  <si>
-    <t>東區力行國小</t>
-  </si>
-  <si>
-    <t>黃昱馨</t>
-  </si>
-  <si>
-    <t>林景盛</t>
-  </si>
-  <si>
-    <t>hpe67wh3</t>
-  </si>
-  <si>
-    <t>tv21yg9</t>
-  </si>
-  <si>
-    <t>東區成功國小</t>
-  </si>
-  <si>
-    <t>蔡渝婕</t>
-  </si>
-  <si>
-    <t>張鈺玟</t>
-  </si>
-  <si>
-    <t>ygw3b6</t>
-  </si>
-  <si>
-    <t>tv78y8</t>
+    <t>wh36dx8</t>
+  </si>
+  <si>
+    <t>kfr55y5</t>
+  </si>
+  <si>
+    <t>陳映伊</t>
+  </si>
+  <si>
+    <t>gwh44c5</t>
+  </si>
+  <si>
+    <t>cd66t6</t>
+  </si>
+  <si>
+    <t>陳絜妡</t>
+  </si>
+  <si>
+    <t>t57kf5</t>
+  </si>
+  <si>
+    <t>cd94a9</t>
+  </si>
+  <si>
+    <t>林瑩芝</t>
+  </si>
+  <si>
+    <t>tv60f3</t>
+  </si>
+  <si>
+    <t>cd3my7</t>
   </si>
   <si>
     <t>南屯區大新國小</t>
   </si>
   <si>
-    <t>黃詩雅</t>
+    <t>廖唯萱</t>
   </si>
   <si>
     <t>蔡婉琪</t>
   </si>
   <si>
-    <t>hp9f5</t>
-  </si>
-  <si>
-    <t>b52kf3</t>
-  </si>
-  <si>
-    <t>蘇芷鋆</t>
-  </si>
-  <si>
-    <t>bj81b4</t>
-  </si>
-  <si>
-    <t>dx15a4</t>
-  </si>
-  <si>
-    <t>林采彣</t>
-  </si>
-  <si>
-    <t>anc69f3</t>
-  </si>
-  <si>
-    <t>s63c2</t>
-  </si>
-  <si>
-    <t>劉可甯</t>
-  </si>
-  <si>
-    <t>xb65v8</t>
-  </si>
-  <si>
-    <t>r78g9</t>
+    <t>sm55n3</t>
+  </si>
+  <si>
+    <t>tv45bj7</t>
+  </si>
+  <si>
+    <t>邊琪茹</t>
+  </si>
+  <si>
+    <t>j85t3</t>
+  </si>
+  <si>
+    <t>fr69dx5</t>
+  </si>
+  <si>
+    <t>楊子萱</t>
+  </si>
+  <si>
+    <t>dxb83n6</t>
+  </si>
+  <si>
+    <t>smy20kf1</t>
+  </si>
+  <si>
+    <t>李汯橙</t>
+  </si>
+  <si>
+    <t>dx45r3</t>
+  </si>
+  <si>
+    <t>tv72n3</t>
   </si>
   <si>
     <t>南屯區大墩國小</t>
@@ -438,226 +501,187 @@
     <t>蔡沅君</t>
   </si>
   <si>
-    <t>呂岳霖</t>
-  </si>
-  <si>
-    <t>my35p8</t>
-  </si>
-  <si>
-    <t>frs7wh8</t>
-  </si>
-  <si>
-    <t>吳侑穎</t>
-  </si>
-  <si>
     <t>賴明珠</t>
   </si>
   <si>
-    <t>tv66fr8</t>
-  </si>
-  <si>
-    <t>rs72nc7</t>
-  </si>
-  <si>
-    <t>朱妍羚</t>
-  </si>
-  <si>
-    <t>cdx39d5</t>
-  </si>
-  <si>
-    <t>sm19w3</t>
-  </si>
-  <si>
-    <t>南屯區永春國小</t>
-  </si>
-  <si>
-    <t>林季萱</t>
-  </si>
-  <si>
-    <t>張淑芳</t>
-  </si>
-  <si>
-    <t>n27p6</t>
-  </si>
-  <si>
-    <t>j61w7</t>
-  </si>
-  <si>
-    <t>莊子葳</t>
-  </si>
-  <si>
-    <t>c17h4</t>
-  </si>
-  <si>
-    <t>rs79dx7</t>
-  </si>
-  <si>
-    <t>南屯區東興國小</t>
-  </si>
-  <si>
-    <t>黃登宏</t>
-  </si>
-  <si>
-    <t>謝薰靜</t>
-  </si>
-  <si>
-    <t>whp62bj8</t>
-  </si>
-  <si>
-    <t>jkf24p2</t>
-  </si>
-  <si>
-    <t>郭庭瑀</t>
-  </si>
-  <si>
-    <t>fr54my2</t>
-  </si>
-  <si>
-    <t>p55s6</t>
-  </si>
-  <si>
-    <t>賴宣丞</t>
-  </si>
-  <si>
-    <t>rs20pe4</t>
-  </si>
-  <si>
-    <t>cd3y1</t>
+    <t>my26rs3</t>
+  </si>
+  <si>
+    <t>etv99r5</t>
   </si>
   <si>
     <t>南屯區惠文國小</t>
   </si>
   <si>
-    <t>周宸卉</t>
+    <t>林筱芳</t>
   </si>
   <si>
     <t>蔡小玲</t>
   </si>
   <si>
-    <t>p42f6</t>
-  </si>
-  <si>
-    <t>frs51cd9</t>
-  </si>
-  <si>
-    <t>林詠薇</t>
-  </si>
-  <si>
-    <t>bjk17r9</t>
-  </si>
-  <si>
-    <t>fr54pe4</t>
-  </si>
-  <si>
-    <t>黃筱媞</t>
-  </si>
-  <si>
-    <t>rs19yg4</t>
-  </si>
-  <si>
-    <t>whp65yg4</t>
-  </si>
-  <si>
-    <t>張恩瑀</t>
-  </si>
-  <si>
-    <t>xb4d4</t>
-  </si>
-  <si>
-    <t>sm2kf9</t>
-  </si>
-  <si>
-    <t>南區樹義國小</t>
-  </si>
-  <si>
-    <t>陳庭緯</t>
-  </si>
-  <si>
-    <t>陳慧芳</t>
-  </si>
-  <si>
-    <t>frs27kf6</t>
-  </si>
-  <si>
-    <t>ygw29r1</t>
-  </si>
-  <si>
-    <t>謝汶珈</t>
-  </si>
-  <si>
-    <t>dxb1h7</t>
-  </si>
-  <si>
-    <t>g76yg8</t>
-  </si>
-  <si>
-    <t>神岡區社口國小</t>
-  </si>
-  <si>
-    <t>陳瓔瑄</t>
-  </si>
-  <si>
-    <t>陳姵汝</t>
-  </si>
-  <si>
-    <t>cd59f6</t>
-  </si>
-  <si>
-    <t>yg67s3</t>
+    <t>sm65g8</t>
+  </si>
+  <si>
+    <t>et54r5</t>
+  </si>
+  <si>
+    <t>林筱芸</t>
+  </si>
+  <si>
+    <t>d39tv7</t>
+  </si>
+  <si>
+    <t>dx80x3</t>
+  </si>
+  <si>
+    <t>烏日區烏日國小</t>
+  </si>
+  <si>
+    <t>黃莉雅</t>
+  </si>
+  <si>
+    <t>鄭瑋隆</t>
+  </si>
+  <si>
+    <t>Windows 小畫家3D</t>
+  </si>
+  <si>
+    <t>t25h6</t>
+  </si>
+  <si>
+    <t>c49t2</t>
+  </si>
+  <si>
+    <t>李昱錡</t>
+  </si>
+  <si>
+    <t>田欣孟</t>
+  </si>
+  <si>
+    <t>rsm8my9</t>
+  </si>
+  <si>
+    <t>t21jk7</t>
+  </si>
+  <si>
+    <t>神岡區神岡國小</t>
+  </si>
+  <si>
+    <t>杜艾佳</t>
+  </si>
+  <si>
+    <t>林奎光</t>
+  </si>
+  <si>
+    <t>Inkscape 0.92.3</t>
+  </si>
+  <si>
+    <t>et2e6</t>
+  </si>
+  <si>
+    <t>h28wh9</t>
+  </si>
+  <si>
+    <t>王子芸</t>
+  </si>
+  <si>
+    <t>y92t6</t>
+  </si>
+  <si>
+    <t>et90cd3</t>
+  </si>
+  <si>
+    <t>清水區建國國小</t>
+  </si>
+  <si>
+    <t>劉羿廷</t>
+  </si>
+  <si>
+    <t>楊舜仁</t>
+  </si>
+  <si>
+    <t>d26sm8</t>
+  </si>
+  <si>
+    <t>tv51m3</t>
+  </si>
+  <si>
+    <t>新社區新社國小</t>
+  </si>
+  <si>
+    <t>羅宥翔</t>
+  </si>
+  <si>
+    <t>王千維</t>
+  </si>
+  <si>
+    <t>nc83tv7</t>
+  </si>
+  <si>
+    <t>dxb31v9</t>
   </si>
   <si>
     <t>潭子區潭子國小</t>
   </si>
   <si>
-    <t>陳筠樺</t>
+    <t>陳亞玗</t>
   </si>
   <si>
     <t>簡綉芳</t>
   </si>
   <si>
-    <t>nc60j9</t>
-  </si>
-  <si>
-    <t>y81xb8</t>
-  </si>
-  <si>
-    <t>侯品妤</t>
-  </si>
-  <si>
-    <t>pet12k4</t>
-  </si>
-  <si>
-    <t>g43kf5</t>
-  </si>
-  <si>
-    <t>潭子區潭陽國小</t>
-  </si>
-  <si>
-    <t>許姿晨</t>
-  </si>
-  <si>
-    <t>陳晧玉</t>
-  </si>
-  <si>
-    <t>fr11rs3</t>
-  </si>
-  <si>
-    <t>xb28c8</t>
-  </si>
-  <si>
-    <t>豐原區豐田國小</t>
-  </si>
-  <si>
-    <t>張祐愷</t>
-  </si>
-  <si>
-    <t>林東儀</t>
-  </si>
-  <si>
-    <t>kf29k8</t>
-  </si>
-  <si>
-    <t>j7t6</t>
+    <t>frs31b4</t>
+  </si>
+  <si>
+    <t>hp20v5</t>
+  </si>
+  <si>
+    <t>陳子安</t>
+  </si>
+  <si>
+    <t>yg44cd3</t>
+  </si>
+  <si>
+    <t>et88tv9</t>
+  </si>
+  <si>
+    <t>龍井區龍井國小</t>
+  </si>
+  <si>
+    <t>蔡韋琳</t>
+  </si>
+  <si>
+    <t>趙子如</t>
+  </si>
+  <si>
+    <t>p1c7</t>
+  </si>
+  <si>
+    <t>j23hp2</t>
+  </si>
+  <si>
+    <t>湯雯棋</t>
+  </si>
+  <si>
+    <t>fr64xb2</t>
+  </si>
+  <si>
+    <t>wh80nc6</t>
+  </si>
+  <si>
+    <t>豐原區南陽國小</t>
+  </si>
+  <si>
+    <t>葉芷涵</t>
+  </si>
+  <si>
+    <t>吳德虎</t>
+  </si>
+  <si>
+    <t>jk21t5</t>
+  </si>
+  <si>
+    <t>g86my2</t>
   </si>
 </sst>
 </file>
@@ -1659,12 +1683,12 @@
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1759,16 +1783,16 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1779,16 +1803,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>25</v>
@@ -1805,16 +1829,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>28</v>
@@ -1840,13 +1864,13 @@
         <v>32</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1857,22 +1881,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1883,22 +1907,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1909,22 +1933,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1938,19 +1962,19 @@
         <v>46</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>48</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1961,16 +1985,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>55</v>
@@ -1996,7 +2020,7 @@
         <v>59</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>60</v>
@@ -2013,22 +2037,22 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2039,22 +2063,22 @@
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2065,22 +2089,22 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2091,22 +2115,22 @@
         <v>8</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2117,22 +2141,22 @@
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2143,22 +2167,22 @@
         <v>8</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2169,22 +2193,22 @@
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2195,22 +2219,22 @@
         <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2221,22 +2245,22 @@
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2247,22 +2271,22 @@
         <v>8</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="F23" s="8" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2273,22 +2297,22 @@
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2299,22 +2323,22 @@
         <v>8</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2325,22 +2349,22 @@
         <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="F26" s="5" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2351,22 +2375,22 @@
         <v>8</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2377,22 +2401,22 @@
         <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2403,22 +2427,22 @@
         <v>8</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2429,22 +2453,22 @@
         <v>8</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2455,22 +2479,22 @@
         <v>8</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2481,22 +2505,22 @@
         <v>8</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2507,22 +2531,22 @@
         <v>8</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2533,22 +2557,22 @@
         <v>8</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2559,22 +2583,22 @@
         <v>8</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="F35" s="8" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2585,22 +2609,22 @@
         <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2611,22 +2635,22 @@
         <v>8</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2637,22 +2661,22 @@
         <v>8</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2663,22 +2687,22 @@
         <v>8</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2689,22 +2713,22 @@
         <v>8</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="F40" s="5" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2715,22 +2739,22 @@
         <v>8</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2741,22 +2765,22 @@
         <v>8</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2767,22 +2791,22 @@
         <v>8</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2793,22 +2817,22 @@
         <v>8</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2819,22 +2843,22 @@
         <v>8</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2845,22 +2869,22 @@
         <v>8</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2871,22 +2895,22 @@
         <v>8</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2897,22 +2921,22 @@
         <v>8</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2923,22 +2947,22 @@
         <v>8</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2949,22 +2973,22 @@
         <v>8</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2975,22 +2999,22 @@
         <v>8</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
